--- a/RACI Matrix Example.xlsx
+++ b/RACI Matrix Example.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Cynthiawsy/Downloads/PMForBA_AllResources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9142E08-258F-D74B-98EB-954FA594737A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A34C68-BAD2-3847-B1E7-17E4020F861B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RACI Matrix" sheetId="1" r:id="rId1"/>
+    <sheet name="RACI Matrix (2)" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'RACI Matrix'!$A$1:$M$57</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'RACI Matrix (2)'!$A$1:$M$57</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="31">
   <si>
     <r>
       <t xml:space="preserve">Actions / Tasks                                           </t>
@@ -109,6 +111,45 @@
   </si>
   <si>
     <t>Executive</t>
+  </si>
+  <si>
+    <t>Field Representative</t>
+  </si>
+  <si>
+    <t>Sales Administrator</t>
+  </si>
+  <si>
+    <t>Sales Manager</t>
+  </si>
+  <si>
+    <t>CRM Software Developer</t>
+  </si>
+  <si>
+    <t>Website Developer</t>
+  </si>
+  <si>
+    <t>Company Executives</t>
+  </si>
+  <si>
+    <t>Elicit 引出/ Analyze Requirement</t>
+  </si>
+  <si>
+    <t>Solution Design</t>
+  </si>
+  <si>
+    <t>Solution Design Approval (Sign Off)</t>
+  </si>
+  <si>
+    <t>CRM Changes</t>
+  </si>
+  <si>
+    <t>Website Changes</t>
+  </si>
+  <si>
+    <t>Test Solution</t>
+  </si>
+  <si>
+    <t>Final Solution Approval</t>
   </si>
 </sst>
 </file>
@@ -267,7 +308,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -293,6 +334,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="6"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -305,9 +349,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -594,7 +639,7 @@
   </sheetPr>
   <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="232" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="232" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
@@ -609,28 +654,28 @@
   <sheetData>
     <row r="1" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="13"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
     </row>
     <row r="3" spans="2:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="13"/>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -655,7 +700,7 @@
       <c r="M3" s="7"/>
     </row>
     <row r="4" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="13"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
@@ -679,7 +724,7 @@
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="2:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="13"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
@@ -703,7 +748,7 @@
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="13"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
@@ -729,7 +774,7 @@
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="13"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="5"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -743,7 +788,7 @@
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="13"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="5"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -757,7 +802,7 @@
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="13"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="5"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -771,7 +816,7 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="13"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="5"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -785,7 +830,7 @@
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="13"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="5"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -799,7 +844,7 @@
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="13"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="5"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -813,7 +858,7 @@
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="13"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="5"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -827,7 +872,7 @@
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="13"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="5"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -841,7 +886,7 @@
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="13"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="5"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -855,7 +900,7 @@
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="13"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="5"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -869,7 +914,7 @@
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="13"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="5"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -883,7 +928,7 @@
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="13"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="5"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -897,7 +942,7 @@
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="13"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="5"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -911,7 +956,7 @@
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="13"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="5"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -925,7 +970,7 @@
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="13"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="5"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -939,7 +984,7 @@
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="13"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="5"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -953,7 +998,7 @@
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="13"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="5"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -967,7 +1012,7 @@
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="13"/>
+      <c r="B24" s="14"/>
       <c r="C24" s="5"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -981,7 +1026,7 @@
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="13"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="5"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -995,7 +1040,7 @@
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="13"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="5"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -1009,7 +1054,7 @@
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="13"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="5"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1023,7 +1068,7 @@
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="13"/>
+      <c r="B28" s="14"/>
       <c r="C28" s="5"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -1037,7 +1082,7 @@
       <c r="M28" s="1"/>
     </row>
     <row r="29" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="13"/>
+      <c r="B29" s="14"/>
       <c r="C29" s="5"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1051,7 +1096,7 @@
       <c r="M29" s="1"/>
     </row>
     <row r="30" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="13"/>
+      <c r="B30" s="14"/>
       <c r="C30" s="5"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -1065,7 +1110,7 @@
       <c r="M30" s="1"/>
     </row>
     <row r="31" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="13"/>
+      <c r="B31" s="14"/>
       <c r="C31" s="5"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1079,7 +1124,7 @@
       <c r="M31" s="1"/>
     </row>
     <row r="32" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="13"/>
+      <c r="B32" s="14"/>
       <c r="C32" s="5"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1093,7 +1138,7 @@
       <c r="M32" s="1"/>
     </row>
     <row r="33" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="13"/>
+      <c r="B33" s="14"/>
       <c r="C33" s="5"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -1107,7 +1152,7 @@
       <c r="M33" s="1"/>
     </row>
     <row r="34" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="13"/>
+      <c r="B34" s="14"/>
       <c r="C34" s="5"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -1121,7 +1166,7 @@
       <c r="M34" s="1"/>
     </row>
     <row r="35" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="13"/>
+      <c r="B35" s="14"/>
       <c r="C35" s="5"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -1135,7 +1180,7 @@
       <c r="M35" s="1"/>
     </row>
     <row r="36" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="13"/>
+      <c r="B36" s="14"/>
       <c r="C36" s="5"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -1149,7 +1194,7 @@
       <c r="M36" s="1"/>
     </row>
     <row r="37" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="13"/>
+      <c r="B37" s="14"/>
       <c r="C37" s="5"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -1163,7 +1208,7 @@
       <c r="M37" s="1"/>
     </row>
     <row r="38" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="13"/>
+      <c r="B38" s="14"/>
       <c r="C38" s="5"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -1177,7 +1222,7 @@
       <c r="M38" s="1"/>
     </row>
     <row r="39" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="13"/>
+      <c r="B39" s="14"/>
       <c r="C39" s="5"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -1191,7 +1236,7 @@
       <c r="M39" s="1"/>
     </row>
     <row r="40" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="13"/>
+      <c r="B40" s="14"/>
       <c r="C40" s="5"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -1205,7 +1250,7 @@
       <c r="M40" s="1"/>
     </row>
     <row r="41" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="13"/>
+      <c r="B41" s="14"/>
       <c r="C41" s="5"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -1219,7 +1264,7 @@
       <c r="M41" s="1"/>
     </row>
     <row r="42" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="13"/>
+      <c r="B42" s="14"/>
       <c r="C42" s="5"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -1233,7 +1278,7 @@
       <c r="M42" s="1"/>
     </row>
     <row r="43" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="13"/>
+      <c r="B43" s="14"/>
       <c r="C43" s="5"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -1247,7 +1292,7 @@
       <c r="M43" s="1"/>
     </row>
     <row r="44" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="13"/>
+      <c r="B44" s="14"/>
       <c r="C44" s="5"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -1261,7 +1306,7 @@
       <c r="M44" s="1"/>
     </row>
     <row r="45" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="13"/>
+      <c r="B45" s="14"/>
       <c r="C45" s="5"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -1275,7 +1320,7 @@
       <c r="M45" s="1"/>
     </row>
     <row r="46" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="13"/>
+      <c r="B46" s="14"/>
       <c r="C46" s="5"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -1289,7 +1334,7 @@
       <c r="M46" s="1"/>
     </row>
     <row r="47" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="13"/>
+      <c r="B47" s="14"/>
       <c r="C47" s="5"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -1303,7 +1348,7 @@
       <c r="M47" s="1"/>
     </row>
     <row r="48" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="13"/>
+      <c r="B48" s="14"/>
       <c r="C48" s="5"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -1317,7 +1362,7 @@
       <c r="M48" s="1"/>
     </row>
     <row r="49" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="13"/>
+      <c r="B49" s="14"/>
       <c r="C49" s="5"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -1331,7 +1376,7 @@
       <c r="M49" s="1"/>
     </row>
     <row r="50" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="13"/>
+      <c r="B50" s="14"/>
       <c r="C50" s="5"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -1345,7 +1390,7 @@
       <c r="M50" s="1"/>
     </row>
     <row r="51" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="13"/>
+      <c r="B51" s="14"/>
       <c r="C51" s="5"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -1359,7 +1404,7 @@
       <c r="M51" s="1"/>
     </row>
     <row r="52" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="13"/>
+      <c r="B52" s="14"/>
       <c r="C52" s="5"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -1373,7 +1418,7 @@
       <c r="M52" s="1"/>
     </row>
     <row r="53" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="13"/>
+      <c r="B53" s="14"/>
       <c r="C53" s="5"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -1387,7 +1432,7 @@
       <c r="M53" s="1"/>
     </row>
     <row r="54" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="14"/>
+      <c r="B54" s="15"/>
       <c r="C54" s="5"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -1427,4 +1472,914 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="69" fitToHeight="0" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{455B4A77-B03C-F64F-9BF9-5811C9F2CB41}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:O58"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="178" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" customWidth="1"/>
+    <col min="4" max="13" width="15.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+    </row>
+    <row r="3" spans="2:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="16"/>
+      <c r="C3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="16"/>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:15" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="16"/>
+      <c r="C5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="16"/>
+      <c r="C6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="16"/>
+      <c r="C7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="16"/>
+      <c r="C8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="16"/>
+      <c r="C9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="16"/>
+      <c r="C10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="2:15" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="16"/>
+      <c r="C11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="16"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="16"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="16"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="16"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="16"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="16"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="16"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="16"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="16"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="16"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="16"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="16"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="16"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="16"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="16"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="16"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="16"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="16"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="16"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="16"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="32" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="16"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+    </row>
+    <row r="33" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="16"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+    </row>
+    <row r="34" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="16"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+    </row>
+    <row r="35" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="16"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+    </row>
+    <row r="36" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="16"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+    </row>
+    <row r="37" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="16"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+    </row>
+    <row r="38" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="16"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+    </row>
+    <row r="39" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="16"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+    </row>
+    <row r="40" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="16"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+    </row>
+    <row r="41" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="16"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+    </row>
+    <row r="42" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="16"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+    </row>
+    <row r="43" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="16"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+    </row>
+    <row r="44" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="16"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+    </row>
+    <row r="45" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="16"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+    </row>
+    <row r="46" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="16"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+    </row>
+    <row r="47" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="16"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+    </row>
+    <row r="48" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="16"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+    </row>
+    <row r="49" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="16"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+    </row>
+    <row r="50" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="16"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+    </row>
+    <row r="51" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="16"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+    </row>
+    <row r="52" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="16"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+    </row>
+    <row r="53" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="16"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+    </row>
+    <row r="54" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="15"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A57" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A58" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:B54"/>
+    <mergeCell ref="C2:M2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A58" r:id="rId1" xr:uid="{6CE35057-CC52-8340-A60B-95CEA5D609FC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="69" fitToHeight="0" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
+</worksheet>
 </file>